--- a/material/self-assesment.xlsx
+++ b/material/self-assesment.xlsx
@@ -57,7 +57,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Max 100 points: 10%</t>
+      <t xml:space="preserve">Max 200 points: 20%</t>
     </r>
     <r>
       <rPr>
@@ -596,7 +596,7 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/material/self-assesment.xlsx
+++ b/material/self-assesment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId3"/>
@@ -595,7 +595,7 @@
   </sheetPr>
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -658,7 +658,7 @@
   <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -988,7 +988,7 @@
         <v>70</v>
       </c>
       <c r="G24" s="17" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +1009,7 @@
   </sheetPr>
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
